--- a/doc/keyword.xlsx
+++ b/doc/keyword.xlsx
@@ -26,13 +26,13 @@
     <t>描述</t>
   </si>
   <si>
-    <t>0x31</t>
+    <t>0x41</t>
   </si>
   <si>
     <t>控制指令</t>
   </si>
   <si>
-    <t>0x30</t>
+    <t>0x40</t>
   </si>
   <si>
     <t>目标跟踪结果</t>
@@ -92,7 +92,7 @@
     <t>目标置信度</t>
   </si>
   <si>
-    <t>0x32</t>
+    <t>0x42</t>
   </si>
   <si>
     <t>调参指令</t>
@@ -116,7 +116,7 @@
     <t>Y_kd</t>
   </si>
   <si>
-    <t>0x33</t>
+    <t>0x43</t>
   </si>
   <si>
     <t>图像控制数据</t>
@@ -134,7 +134,7 @@
     <t>分辨率编号</t>
   </si>
   <si>
-    <t>0x34</t>
+    <t>0x44</t>
   </si>
   <si>
     <t>配置跟踪参数</t>
@@ -183,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -243,7 +243,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -258,7 +258,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -267,10 +267,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -282,66 +282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -433,81 +373,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -566,7 +431,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -582,121 +447,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1048,8 +871,8 @@
   </sheetPr>
   <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1075,176 +898,176 @@
         <v>2</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="6">
         <v>1</v>
       </c>
-      <c r="J5" s="33"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="G6" s="13" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="10">
         <v>4</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="26">
         <v>4</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="20">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="28">
         <v>4</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="26"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
@@ -1257,223 +1080,223 @@
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>4</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="24">
         <v>4</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="32" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="33" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="16">
         <v>1</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="32" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="33" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="10">
         <v>1</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="16">
         <v>1</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="17" t="s">
         <v>42</v>
       </c>
     </row>

--- a/doc/keyword.xlsx
+++ b/doc/keyword.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19420" windowHeight="8560" tabRatio="167"/>
+    <workbookView windowWidth="19420" windowHeight="9600" tabRatio="167"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>命令字</t>
   </si>
@@ -143,7 +143,10 @@
     <t>目标颜色编号</t>
   </si>
   <si>
-    <t>结果类型编号</t>
+    <t>0x45</t>
+  </si>
+  <si>
+    <t>参数查询</t>
   </si>
 </sst>
 </file>
@@ -152,9 +155,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -869,10 +872,10 @@
   <sheetPr>
     <tabColor indexed="9"/>
   </sheetPr>
-  <dimension ref="B2:J31"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1287,18 +1290,58 @@
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.786805555555556" right="0.786805555555556" top="1.05277777777778" bottom="1.05277777777778" header="0.786805555555556" footer="0.786805555555556"/>

--- a/doc/keyword.xlsx
+++ b/doc/keyword.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>命令字</t>
   </si>
@@ -146,7 +146,16 @@
     <t>0x45</t>
   </si>
   <si>
-    <t>参数查询</t>
+    <t>width</t>
+  </si>
+  <si>
+    <t>目标宽度</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>目标高度</t>
   </si>
 </sst>
 </file>
@@ -154,10 +163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -874,8 +883,8 @@
   </sheetPr>
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1312,10 +1321,12 @@
         <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="8" t="s">
@@ -1332,16 +1343,32 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="5"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="10">
+        <v>4</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
+      <c r="B37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="16">
+        <v>4</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.786805555555556" right="0.786805555555556" top="1.05277777777778" bottom="1.05277777777778" header="0.786805555555556" footer="0.786805555555556"/>
